--- a/Phase 3/ST-COMM-Testing-phase3/copyGame.xlsx
+++ b/Phase 3/ST-COMM-Testing-phase3/copyGame.xlsx
@@ -45,10 +45,10 @@
     <t>Math4</t>
   </si>
   <si>
-    <t>Keven</t>
-  </si>
-  <si>
     <t>123X456</t>
+  </si>
+  <si>
+    <t>andrew</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -453,10 +453,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
